--- a/database/clientes.xlsx
+++ b/database/clientes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iago Lima\Desktop\Guaiamum Figital\Projeto 1 - bot whatsapp\bot whatsapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iago Lima\Desktop\Guaiamum Figital\Projeto 1 - bot whatsapp\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A14ED84-5958-4EFC-8DC0-46B0246E9DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C05D5E-2993-4CBC-B6D2-D63892990CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>nome</t>
   </si>
   <si>
     <t>telefone</t>
-  </si>
-  <si>
-    <t>vencimento</t>
   </si>
   <si>
     <t>Allyson</t>
@@ -49,9 +46,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -87,9 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -412,52 +405,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
